--- a/Specialty2.xlsx
+++ b/Specialty2.xlsx
@@ -8,12 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\2course\ООП\Інструменти і технології програмування\Лабораторна 1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{814C5086-7BA9-4FA6-A9C7-9BF257279668}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{93CFCEA9-89F5-4E3F-ABD2-43F4F55BA334}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{05A295B0-E090-4251-AB0C-AF6625BED2FB}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Спеціальність 1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
   <si>
     <t>Освітня программа 1</t>
   </si>
@@ -46,6 +46,12 @@
   </si>
   <si>
     <t>rtrtrt</t>
+  </si>
+  <si>
+    <t>Факультет комп'ютерних наук та кібернетики</t>
+  </si>
+  <si>
+    <t>Географічний факультет</t>
   </si>
 </sst>
 </file>
@@ -401,10 +407,15 @@
   <dimension ref="A2:C4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="24.28515625" customWidth="1"/>
+    <col min="2" max="2" width="37" customWidth="1"/>
+    <col min="3" max="3" width="39.28515625" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
@@ -426,8 +437,11 @@
       <c r="A4" t="s">
         <v>4</v>
       </c>
-      <c r="B4">
-        <v>1</v>
+      <c r="B4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C4" t="s">
+        <v>6</v>
       </c>
     </row>
   </sheetData>
